--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RC2\modules\app-designer\app\config\tables\deliveries\forms\deliveries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\red-cross\redcross-app-designer\app\config\tables\deliveries\forms\deliveries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="1245" windowWidth="28800" windowHeight="13485" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="1240" windowWidth="28800" windowHeight="13480" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -92,6 +92,12 @@
     <t>is_override</t>
   </si>
   <si>
+    <t>item_pack_id</t>
+  </si>
+  <si>
+    <t>item_pack_name</t>
+  </si>
+  <si>
     <t>custom_delivery_form_id</t>
   </si>
   <si>
@@ -176,22 +182,16 @@
     <t>HIDDEN</t>
   </si>
   <si>
+    <t>item_pack_description</t>
+  </si>
+  <si>
     <t>member_id</t>
   </si>
   <si>
+    <t>assigned_item_pack_code</t>
+  </si>
+  <si>
     <t>distribution_name</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>item_name</t>
-  </si>
-  <si>
-    <t>item_description</t>
-  </si>
-  <si>
-    <t>assigned_item_code</t>
   </si>
 </sst>
 </file>
@@ -686,9 +686,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>11</v>
       </c>
@@ -742,16 +742,16 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.625" customWidth="1"/>
-    <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -759,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -767,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -775,15 +775,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -791,15 +791,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -807,7 +807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -815,60 +815,60 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row r="12" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -885,64 +885,64 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="13">
         <v>20160822</v>
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -960,74 +960,74 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
